--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3870.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3870.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.775984673694686</v>
+        <v>4.600934028625488</v>
       </c>
       <c r="B1">
-        <v>3.004824262169105</v>
+        <v>3.664695024490356</v>
       </c>
       <c r="C1">
-        <v>3.239987330483661</v>
+        <v>3.207427024841309</v>
       </c>
       <c r="D1">
-        <v>3.716949055160843</v>
+        <v>3.976921796798706</v>
       </c>
       <c r="E1">
-        <v>1.128006856721799</v>
+        <v>5.030847072601318</v>
       </c>
     </row>
   </sheetData>
